--- a/Task/Проверки 1.2 в.6.xlsx
+++ b/Task/Проверки 1.2 в.6.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$55</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -1115,6 +1115,249 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 46, 53, 58, 61, 62, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 67, 68, 71, 72, 72, 73, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">76, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не пустое поле. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <t>Операцию 43 отмечать при проверках как ошибочную с сообщением: р</t>
+  </si>
+  <si>
+    <t>Не пустое поле и не 0.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Из возможных значений. При виде 19 требуется примечение. При коде операции 10 должно быть 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При коде операции 11 должено быть 9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 3</t>
     </r>
     <r>
@@ -1126,12 +1369,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>9, 54, 66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, </t>
+      <t xml:space="preserve">9, 54, </t>
     </r>
     <r>
       <rPr>
@@ -1142,234 +1380,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 46, 53, 58, 61, 62, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 67, 68, 71, 72, 72, 73, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>74</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">76, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Не пустое поле. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <t>Операцию 43 отмечать при проверках как ошибочную с сообщением: р</t>
-  </si>
-  <si>
-    <t>Не пустое поле и не 0.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Из возможных значений. При виде 19 требуется примечение. При коде операции 10 должно быть 1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При коде операции 11 должено быть 9.</t>
+      <t>66</t>
     </r>
   </si>
 </sst>
@@ -1921,8 +1932,8 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2034,7 @@
         <v>43</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>138</v>
@@ -2432,7 +2443,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>116</v>
@@ -2758,7 +2769,7 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>123</v>
@@ -2863,7 +2874,7 @@
         <v>61</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>62</v>
@@ -2887,7 +2898,7 @@
         <v>126</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>107</v>
@@ -2908,7 +2919,7 @@
         <v>31</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>63</v>
@@ -2932,7 +2943,7 @@
         <v>31</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E46" s="7">
         <v>66</v>
@@ -2956,7 +2967,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>65</v>
@@ -2980,7 +2991,7 @@
         <v>31</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>67</v>
@@ -3056,10 +3067,10 @@
         <v>31</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>64</v>
@@ -3110,7 +3121,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>124</v>
@@ -3132,7 +3143,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>124</v>
@@ -3154,7 +3165,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>124</v>

--- a/Task/Проверки 1.2 в.6.xlsx
+++ b/Task/Проверки 1.2 в.6.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$55</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -825,12 +825,551 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Графа не может быть пустой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Для выбранного кода операции указывается код ОКПО отчитывающейся организации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов),</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО контрагента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="3" tint="0.39997558519241921"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При выбранном коде операции траспортирование не производится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование и адрес организации-изготовителя ИОУ»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 3, 4 в графе 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
+  </si>
+  <si>
+    <t>Если для проведения проверки будет в каком-то виде формироваться СНК, то можно предложить пользователю сохранить получившийся СНК в файле. Иначе будет затруднительно понять, в чем именно несовпадение.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21, 22, 25, 27, 28, 29,41, 42, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 46, 53, 54</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 62, 65, 66, 67, 68, 71, 72, 81, 82, 83, 84, 88, 98</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Активность изделий из обедненного урана не может снизится за время эксплуатации до значений ниже уровня отнесения к объектам учета". </t>
+  </si>
+  <si>
+    <t>Из возможных значений, для остальных операций</t>
+  </si>
+  <si>
+    <t>«В графе 16 необходимо указать код ОКПО отчитывающейся организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 16 необходимо указать ОКПО подрядной организации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если зарядка/разрядка осуществлялась силами отчитывающейся  организации, следует использовать код операции 53»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 46, 53, 58, 61, 62, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 67, 68, 71, 72, 72, 73, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">76, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не пустое поле. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <t>Операцию 43 отмечать при проверках как ошибочную с сообщением: р</t>
+  </si>
+  <si>
+    <t>Не пустое поле и не 0.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Из возможных значений. При виде 19 требуется примечение. При коде операции 10 должно быть 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При коде операции 11 должено быть 9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9, 54, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Необходимо указать вид документа в соответствии с таблицей 3 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
     </r>
     <r>
@@ -841,546 +1380,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Графа не может быть пустой</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Для выбранного кода операции указывается код ОКПО отчитывающейся организации</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов),</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Укажите код ОКПО контрагента</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При выбранном коде операции траспортирование не производится</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование и адрес организации-изготовителя ИОУ»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 2, 3, 4 в графе 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
-  </si>
-  <si>
-    <t>Если для проведения проверки будет в каком-то виде формироваться СНК, то можно предложить пользователю сохранить получившийся СНК в файле. Иначе будет затруднительно понять, в чем именно несовпадение.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21, 22, 25, 27, 28, 29,41, 42, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 46, 53, 54</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 61</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 62, 65, 66, 67, 68, 71, 72, 81, 82, 83, 84, 88, 98</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">"Активность изделий из обедненного урана не может снизится за время эксплуатации до значений ниже уровня отнесения к объектам учета". </t>
-  </si>
-  <si>
-    <t>Из возможных значений, для остальных операций</t>
-  </si>
-  <si>
-    <t>«В графе 16 необходимо указать код ОКПО отчитывающейся организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 16 необходимо указать ОКПО подрядной организации. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если зарядка/разрядка осуществлялась силами отчитывающейся  организации, следует использовать код операции 53»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 46, 53, 58, 61, 62, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 67, 68, 71, 72, 72, 73, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>74</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">76, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Не пустое поле. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <t>Операцию 43 отмечать при проверках как ошибочную с сообщением: р</t>
-  </si>
-  <si>
-    <t>Не пустое поле и не 0.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Из возможных значений. При виде 19 требуется примечение. При коде операции 10 должно быть 1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При коде операции 11 должено быть 9.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9, 54, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66</t>
+      <t>»
+«Необходимо указать примечание к указанному виду документа»
+«При коде операции инвентаризации вид документа должен быть равен 1»
+«При коде операции 66 вид документа должен быть равен 13»</t>
     </r>
   </si>
 </sst>
@@ -1932,8 +1935,8 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1997,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2013,7 +2016,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>93</v>
@@ -2034,10 +2037,10 @@
         <v>43</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -2063,7 +2066,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2100,7 +2103,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>82</v>
@@ -2170,7 +2173,7 @@
         <v>113</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -2192,7 +2195,7 @@
         <v>87</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -2443,7 +2446,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>116</v>
@@ -2534,7 +2537,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -2618,7 +2621,7 @@
         <v>48</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="10"/>
     </row>
@@ -2640,7 +2643,7 @@
         <v>48</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="10"/>
     </row>
@@ -2678,7 +2681,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>45</v>
@@ -2754,7 +2757,7 @@
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>13</v>
       </c>
@@ -2769,10 +2772,10 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -2792,7 +2795,7 @@
         <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -2874,13 +2877,13 @@
         <v>61</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -2895,10 +2898,10 @@
         <v>31</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>107</v>
@@ -2919,7 +2922,7 @@
         <v>31</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>63</v>
@@ -2928,7 +2931,7 @@
         <v>64</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -2943,7 +2946,7 @@
         <v>31</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E46" s="7">
         <v>66</v>
@@ -2952,7 +2955,7 @@
         <v>107</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -2967,7 +2970,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>65</v>
@@ -2976,7 +2979,7 @@
         <v>66</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -2991,7 +2994,7 @@
         <v>31</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>67</v>
@@ -3050,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -3067,16 +3070,16 @@
         <v>31</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -3102,7 +3105,7 @@
         <v>66</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -3121,10 +3124,10 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -3143,10 +3146,10 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -3165,10 +3168,10 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>

--- a/Task/Проверки 1.2 в.6.xlsx
+++ b/Task/Проверки 1.2 в.6.xlsx
@@ -526,6 +526,344 @@
     <t>Если больше, то ошибка</t>
   </si>
   <si>
+    <t xml:space="preserve">В графе 16 код ОКПО отчитывающейся организации. </t>
+  </si>
+  <si>
+    <t>11, 12, 28, 38, 41,  63, 64, 73, 85, 81</t>
+  </si>
+  <si>
+    <t>81, 88</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Графа не может быть пустой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Проверьте правильность предоставления сведений о массе ИОУ»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО организации изготовителя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выберите идентификатор, соотвествующий форме собственности ИОУ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если правообладатель  российское юридическое лицо необходимо указать его код ОКПО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если правообладатель  иностранное государство необходимо указать его краткое наименование в соответствии с ОКСМ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование и адрес правообладателя (собственника или обладателя иного вещного права) на ИОУ»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Графа не может быть пустой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Для выбранного кода операции указывается код ОКПО отчитывающейся организации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов),</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Укажите код ОКПО контрагента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При выбранном коде операции траспортирование не производится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование и адрес организации-изготовителя ИОУ»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 3, 4 в графе 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
+  </si>
+  <si>
+    <t>Если для проведения проверки будет в каком-то виде формироваться СНК, то можно предложить пользователю сохранить получившийся СНК в файле. Иначе будет затруднительно понять, в чем именно несовпадение.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21, 22, 25, 27, 28, 29,41, 42, </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -535,7 +873,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>01</t>
+      <t>43</t>
     </r>
     <r>
       <rPr>
@@ -545,7 +883,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 10, 11, 12, </t>
+      <t>, 46, 53, 54</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 62, 65, 66, 67, 68, 71, 72, 81, 82, 83, 84, 88, 98</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Активность изделий из обедненного урана не может снизится за время эксплуатации до значений ниже уровня отнесения к объектам учета". </t>
+  </si>
+  <si>
+    <t>Из возможных значений, для остальных операций</t>
+  </si>
+  <si>
+    <t>«В графе 16 необходимо указать код ОКПО отчитывающейся организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе 16 необходимо указать ОКПО подрядной организации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если зарядка/разрядка осуществлялась силами отчитывающейся  организации, следует использовать код операции 53»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
     </r>
     <r>
       <rPr>
@@ -556,7 +952,36 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>15</t>
+      <t>Минобороны, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
     </r>
     <r>
       <rPr>
@@ -566,7 +991,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, </t>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
     </r>
     <r>
       <rPr>
@@ -577,7 +1007,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>43</t>
+      <t>32</t>
     </r>
     <r>
       <rPr>
@@ -587,28 +1017,68 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>46</t>
-    </r>
-    <r>
-      <rPr>
+      <t>, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минобороны, -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не пустое поле. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,  </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <t>Операцию 43 отмечать при проверках как ошибочную с сообщением: р</t>
+  </si>
+  <si>
+    <t>Не пустое поле и не 0.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Из возможных значений. При виде 19 требуется примечение. При коде операции 10 должно быть 1. </t>
     </r>
     <r>
       <rPr>
@@ -619,742 +1089,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 66, 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>88</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">В графе 16 код ОКПО отчитывающейся организации. </t>
-  </si>
-  <si>
-    <t>11, 12, 28, 38, 41,  63, 64, 73, 85, 81</t>
-  </si>
-  <si>
-    <t>81, 88</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Графа не может быть пустой</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Проверьте правильность предоставления сведений о массе ИОУ»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Укажите код ОКПО организации изготовителя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Выберите идентификатор, соотвествующий форме собственности ИОУ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если правообладатель  российское юридическое лицо необходимо указать его код ОКПО</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если правообладатель  иностранное государство необходимо указать его краткое наименование в соответствии с ОКСМ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование и адрес правообладателя (собственника или обладателя иного вещного права) на ИОУ»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Графа не может быть пустой</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Для выбранного кода операции указывается код ОКПО отчитывающейся организации</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов),</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Укажите код ОКПО контрагента</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО организации, осуществившей продление НСС»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При выбранном коде операции траспортирование не производится</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование и адрес организации-изготовителя ИОУ»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 2, 3, 4 в графе 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
-  </si>
-  <si>
-    <t>Если для проведения проверки будет в каком-то виде формироваться СНК, то можно предложить пользователю сохранить получившийся СНК в файле. Иначе будет затруднительно понять, в чем именно несовпадение.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21, 22, 25, 27, 28, 29,41, 42, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 46, 53, 54</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 61</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 62, 65, 66, 67, 68, 71, 72, 81, 82, 83, 84, 88, 98</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">"Активность изделий из обедненного урана не может снизится за время эксплуатации до значений ниже уровня отнесения к объектам учета". </t>
-  </si>
-  <si>
-    <t>Из возможных значений, для остальных операций</t>
-  </si>
-  <si>
-    <t>«В графе 16 необходимо указать код ОКПО отчитывающейся организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 16 необходимо указать ОКПО подрядной организации. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если зарядка/разрядка осуществлялась силами отчитывающейся  организации, следует использовать код операции 53»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 46, 53, 58, 61, 62, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 67, 68, 71, 72, 72, 73, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>74</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">76, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Не пустое поле. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <t>Операцию 43 отмечать при проверках как ошибочную с сообщением: р</t>
-  </si>
-  <si>
-    <t>Не пустое поле и не 0.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Из возможных значений. При виде 19 требуется примечение. При коде операции 10 должно быть 1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>При коде операции 11 должено быть 9.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9, 54, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66</t>
     </r>
   </si>
   <si>
@@ -1384,6 +1119,301 @@
 «Необходимо указать примечание к указанному виду документа»
 «При коде операции инвентаризации вид документа должен быть равен 1»
 «При коде операции 66 вид документа должен быть равен 13»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 10, 11, 12, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 66, 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 46, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 58, 61, 62, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 67, 68, 71, 72, 72, 73, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">76, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>54, 66</t>
     </r>
   </si>
 </sst>
@@ -1391,12 +1421,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1577,12 +1615,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1591,10 +1629,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,28 +1641,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1935,8 +1976,8 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +2038,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2011,12 +2052,12 @@
       <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>112</v>
+      <c r="D3" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>93</v>
@@ -2037,10 +2078,10 @@
         <v>43</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -2066,7 +2107,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2103,7 +2144,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>82</v>
@@ -2170,10 +2211,10 @@
         <v>53</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -2195,7 +2236,7 @@
         <v>87</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -2275,7 +2316,7 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>94</v>
@@ -2297,7 +2338,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>91</v>
@@ -2389,7 +2430,7 @@
         <v>79</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -2409,7 +2450,7 @@
         <v>99</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -2429,7 +2470,7 @@
         <v>80</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -2446,10 +2487,10 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -2471,7 +2512,7 @@
         <v>111</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -2515,7 +2556,7 @@
         <v>45</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -2537,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -2599,7 +2640,7 @@
         <v>77</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -2621,7 +2662,7 @@
         <v>48</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" s="10"/>
     </row>
@@ -2643,7 +2684,7 @@
         <v>48</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H32" s="10"/>
     </row>
@@ -2665,7 +2706,7 @@
         <v>48</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H33" s="10"/>
     </row>
@@ -2681,13 +2722,13 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -2709,7 +2750,7 @@
         <v>46</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H35" s="3"/>
     </row>
@@ -2731,7 +2772,7 @@
         <v>47</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -2753,7 +2794,7 @@
         <v>48</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -2772,10 +2813,10 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -2795,7 +2836,7 @@
         <v>32</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -2877,13 +2918,13 @@
         <v>61</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -2898,10 +2939,10 @@
         <v>31</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>107</v>
@@ -2922,7 +2963,7 @@
         <v>31</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>63</v>
@@ -2931,7 +2972,7 @@
         <v>64</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -2946,7 +2987,7 @@
         <v>31</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E46" s="7">
         <v>66</v>
@@ -2955,7 +2996,7 @@
         <v>107</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -2970,7 +3011,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>65</v>
@@ -2979,7 +3020,7 @@
         <v>66</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -2994,7 +3035,7 @@
         <v>31</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>67</v>
@@ -3053,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -3070,16 +3111,16 @@
         <v>31</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -3105,7 +3146,7 @@
         <v>66</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -3124,10 +3165,10 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -3146,10 +3187,10 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -3168,10 +3209,10 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>

--- a/Task/Проверки 1.2 в.6.xlsx
+++ b/Task/Проверки 1.2 в.6.xlsx
@@ -106,9 +106,6 @@
     <t>Дата документа должна попадать в отчетный период.</t>
   </si>
   <si>
-    <t>«Дата акта инвентаризации не входит в отчетный период»</t>
-  </si>
-  <si>
     <t>Номер паспорта</t>
   </si>
   <si>
@@ -191,12 +188,6 @@
   </si>
   <si>
     <t>«Дата документа должна соответствовать дате операции»</t>
-  </si>
-  <si>
-    <t>Дата документа должна быть в границах периода предоставления отчета</t>
-  </si>
-  <si>
-    <t>«Дата документа выходит за границы периода»</t>
   </si>
   <si>
     <t>ОКПО поставщика/получателя</t>
@@ -1415,6 +1406,15 @@
       </rPr>
       <t>54, 66</t>
     </r>
+  </si>
+  <si>
+    <t>«Дата акта инвентаризации выходит за границы отчетного периода.»</t>
+  </si>
+  <si>
+    <t>Дата окончания ОП должны быть не позднее 10 рабочих дней после даты документа</t>
+  </si>
+  <si>
+    <t>«Дата окончания отчетного периода превышает дату акта инвентаризации более, чем на 10 рабочих дней.»</t>
   </si>
 </sst>
 </file>
@@ -1975,9 +1975,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,7 +2038,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2050,17 +2050,17 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -2072,16 +2072,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="16">
         <v>43</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -2093,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2118,7 +2118,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
@@ -2140,17 +2140,17 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2162,14 +2162,14 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
@@ -2184,17 +2184,17 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>41</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -2204,17 +2204,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>53</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -2226,17 +2226,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>54</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -2248,14 +2248,14 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>58</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>16</v>
@@ -2270,14 +2270,14 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
         <v>62</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>17</v>
@@ -2292,14 +2292,14 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>18</v>
@@ -2312,17 +2312,17 @@
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -2334,17 +2334,17 @@
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -2356,17 +2356,17 @@
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -2419,18 +2419,18 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -2439,18 +2439,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -2459,18 +2459,18 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -2479,18 +2479,18 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -2499,20 +2499,20 @@
         <v>7</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -2521,20 +2521,20 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -2543,20 +2543,20 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -2565,20 +2565,20 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -2587,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
@@ -2595,10 +2595,10 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -2607,18 +2607,18 @@
         <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -2627,20 +2627,20 @@
         <v>11</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -2649,7 +2649,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>5</v>
@@ -2659,10 +2659,10 @@
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H31" s="10"/>
     </row>
@@ -2671,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>5</v>
@@ -2681,10 +2681,10 @@
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H32" s="10"/>
     </row>
@@ -2693,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>5</v>
@@ -2703,10 +2703,10 @@
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H33" s="10"/>
     </row>
@@ -2715,20 +2715,20 @@
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -2737,20 +2737,20 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3">
         <v>5</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H35" s="3"/>
     </row>
@@ -2759,20 +2759,20 @@
         <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3">
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H36" s="3"/>
     </row>
@@ -2781,20 +2781,20 @@
         <v>12</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
         <v>9</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H37" s="3"/>
     </row>
@@ -2803,20 +2803,20 @@
         <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -2825,18 +2825,18 @@
         <v>14</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -2845,7 +2845,7 @@
         <v>15</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
@@ -2853,10 +2853,10 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -2865,29 +2865,29 @@
         <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
@@ -2897,10 +2897,10 @@
         <v>27</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="H42" s="3"/>
     </row>
@@ -2909,22 +2909,22 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -2933,22 +2933,22 @@
         <v>16</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -2957,22 +2957,22 @@
         <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -2981,22 +2981,22 @@
         <v>16</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E46" s="7">
         <v>66</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -3005,22 +3005,22 @@
         <v>16</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -3029,22 +3029,22 @@
         <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -3053,22 +3053,22 @@
         <v>16</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="G49" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" s="13">
         <v>1</v>
@@ -3079,22 +3079,22 @@
         <v>17</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -3105,22 +3105,22 @@
         <v>17</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -3131,22 +3131,22 @@
         <v>17</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -3157,18 +3157,18 @@
         <v>18</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -3179,18 +3179,18 @@
         <v>19</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
@@ -3201,18 +3201,18 @@
         <v>20</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
